--- a/files/Distance Matrix.xlsx
+++ b/files/Distance Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="distance_matrix" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="distances" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -405,11 +405,11 @@
   </sheetPr>
   <dimension ref="B5:AD33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.65"/>
@@ -2201,11 +2201,11 @@
   </sheetPr>
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">
